--- a/app/static/user_files/590011/config/verification_result.xlsx
+++ b/app/static/user_files/590011/config/verification_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,39 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TARGET_TABLE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TARGET_TABLE2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8889/static/user_files/590011/csv/TARGET_TABLE2_611.csv</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/static/user_files/590011/config/verification_result.xlsx
+++ b/app/static/user_files/590011/config/verification_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>TARGET_TABLE2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>TARGET_TABLE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TARGET_TABLE2</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -487,73 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8889/static/user_files/590011/csv/TARGET_TABLE2_609.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TARGET_TABLE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TARGET_TABLE2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8889/static/user_files/590011/csv/TARGET_TABLE2_610.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TARGET_TABLE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TARGET_TABLE2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8889/static/user_files/590011/csv/TARGET_TABLE2_611.csv</t>
+          <t>http://127.0.0.1:8888/static/user_files/590011/csv/TARGET_TABLE_10127.csv</t>
         </is>
       </c>
     </row>
